--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC178-EQUIPO MINIBASICO ARIX #2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC178-EQUIPO MINIBASICO ARIX #2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B38EC7-5B17-4DE2-B712-CD1ECFD49FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7F244D-D31D-4B87-808C-5C75B6B94653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -196,12 +196,6 @@
     <t>CURETA</t>
   </si>
   <si>
-    <t xml:space="preserve">OSTEOTOMO FINO </t>
-  </si>
-  <si>
-    <t>PINZA EN PUNTA MEDIANA</t>
-  </si>
-  <si>
     <t xml:space="preserve">PINZA DE SUJECCION TIPO ALLYX </t>
   </si>
   <si>
@@ -226,18 +220,9 @@
     <t xml:space="preserve">IDENTIFICACION DEL PACIENTE </t>
   </si>
   <si>
-    <t>OSTEOTOMO MEDIUM</t>
-  </si>
-  <si>
-    <t>OSTEOTOMO LARGE</t>
-  </si>
-  <si>
     <t xml:space="preserve">OSTEOTOMO FINO CON IMPACTOR </t>
   </si>
   <si>
-    <t>MARTILLO</t>
-  </si>
-  <si>
     <t>GANCHOS</t>
   </si>
   <si>
@@ -247,18 +232,12 @@
     <t xml:space="preserve">SEPARADORES MINIHOMMAN </t>
   </si>
   <si>
-    <t>DISECTORES,ROMO,CURVO,OVALADO</t>
-  </si>
-  <si>
     <t xml:space="preserve">DESPERIO </t>
   </si>
   <si>
     <t>GUBIA</t>
   </si>
   <si>
-    <t>DESPERIO FINO CURVO</t>
-  </si>
-  <si>
     <t>ALQUILER SIERRA</t>
   </si>
   <si>
@@ -272,6 +251,27 @@
   </si>
   <si>
     <t>INQ</t>
+  </si>
+  <si>
+    <t>DISECTORES,ROMO,CURVO MANGO MADERA,OVALADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESPERIO FINO CURVO DOBLE FUNCION </t>
+  </si>
+  <si>
+    <t>OSTEOTOMO FINO CON MANGO</t>
+  </si>
+  <si>
+    <t>OSTEOTOMO MEDIUM PLANO</t>
+  </si>
+  <si>
+    <t>OSTEOTOMO LARGE PLANO</t>
+  </si>
+  <si>
+    <t>PINZA EN PUNTA MEDIANA CON CREMALLERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTILLO MACIZO PEQUEÑO </t>
   </si>
 </sst>
 </file>
@@ -763,15 +763,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,57 +773,66 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1"/>
@@ -1234,48 +1234,48 @@
     <row r="2" spans="1:8" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="49"/>
+      <c r="C2" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="56"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="54"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="47"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="57"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="58"/>
-      <c r="D5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="60"/>
+      <c r="D5" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="62"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1323,7 +1323,7 @@
       <c r="D9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1339,16 +1339,16 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="18">
-      <c r="A11" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="42"/>
+      <c r="A11" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="64"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1382,7 +1382,7 @@
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="62"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="21"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1441,7 +1441,7 @@
       <c r="B19" s="18"/>
       <c r="C19" s="22"/>
       <c r="D19" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="2"/>
@@ -1449,33 +1449,33 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="18">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="18">
       <c r="A21" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="64"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="18">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
@@ -1500,33 +1500,33 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="18">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="44">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="41">
         <v>1</v>
       </c>
-      <c r="E24" s="44"/>
+      <c r="E24" s="41"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="18">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" ht="18">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
@@ -1537,7 +1537,7 @@
     <row r="28" spans="1:12" ht="18">
       <c r="B28" s="31"/>
       <c r="C28" s="32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18">
@@ -1561,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18">
@@ -1569,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="18">
@@ -1577,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="18">
@@ -1593,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="18">
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="18">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="18">
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="18">
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="18">
@@ -1641,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="18">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="18">
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="18">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1">
@@ -1676,24 +1676,24 @@
       <c r="C45" s="36"/>
     </row>
     <row r="47" spans="2:3" ht="30" customHeight="1">
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
     </row>
     <row r="48" spans="2:3" ht="30" customHeight="1">
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
     </row>
     <row r="49" spans="2:3" ht="30" customHeight="1">
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
     </row>
     <row r="50" spans="2:3" ht="30" customHeight="1">
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
     </row>
     <row r="51" spans="2:3" ht="30" customHeight="1">
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
